--- a/matrix/reviewed/windowsinstall_reviewed.xlsx
+++ b/matrix/reviewed/windowsinstall_reviewed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\matrix\reviewed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\matrix\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E452E4-F689-420C-A543-09E77DE105DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181B72E9-C387-4AC4-AF0B-19315D591EEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windowsinstall_reviewed" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -177,13 +177,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -244,15 +244,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -308,14 +308,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
@@ -324,7 +329,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3923C223-22D2-45BA-94FA-BDFF68211D95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -364,20 +369,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
@@ -386,7 +396,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5704E915-DE0B-4A12-B27A-B43D6E2BF893}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -426,7 +436,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -700,17 +710,17 @@
   <dimension ref="B2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -731,7 +741,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>45246</v>
       </c>
@@ -746,7 +756,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -769,13 +779,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -791,15 +801,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -813,13 +823,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -835,13 +845,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:colOff>171450</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>

--- a/matrix/reviewed/windowsinstall_reviewed.xlsx
+++ b/matrix/reviewed/windowsinstall_reviewed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\matrix\reviewed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\matrix\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181B72E9-C387-4AC4-AF0B-19315D591EEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E452E4-F689-420C-A543-09E77DE105DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windowsinstall_reviewed" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -177,13 +177,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>167640</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -244,15 +244,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>167640</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -308,19 +308,14 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>167640</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="396240" cy="281940"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
@@ -329,7 +324,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3923C223-22D2-45BA-94FA-BDFF68211D95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -369,25 +364,20 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>167640</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
+        <xdr:ext cx="396240" cy="281940"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
@@ -396,7 +386,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5704E915-DE0B-4A12-B27A-B43D6E2BF893}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -436,7 +426,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:twoCellAnchor>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -710,17 +700,17 @@
   <dimension ref="B2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,7 +731,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>45246</v>
       </c>
@@ -756,7 +746,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -779,13 +769,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>167640</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -801,15 +791,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>167640</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -823,13 +813,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>167640</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -845,13 +835,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>167640</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
